--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,16 +1442,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,16 +1442,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
+          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Limitada</t>
+          <t>Arturo Julio Larraín Bustamante</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10950</v>
+        <v>80</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ceres Solar</t>
+          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CVE Treinta y Cinco SpA</t>
+          <t>Agrícola Ariztía Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>10950</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Riccione Solar</t>
+          <t>Ceres Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Riccione Solar SpA</t>
+          <t>CVE Treinta y Cinco SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/06/2020</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Planta Fotovoltaica Riccione Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cordova Ltda</t>
+          <t>Riccione Solar SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/03/2020</t>
+          <t>25/06/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>03/03/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
+          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Casablanca Transmisora de Energía S.A.</t>
+          <t>Sociedad de Transportes Cordova Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50499</v>
+        <v>4500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/02/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización Modificacion Bodega de Vino Matetic</t>
+          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>vino y turismo ltda.</t>
+          <t>Casablanca Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>230</v>
+        <v>50499</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>05/02/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Regularización Modificacion Bodega de Vino Matetic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>vino y turismo ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación Mina El Turco, Sector Turco Norte</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>180</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
+          <t>Modificación Mina El Turco, Sector Turco Norte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/12/2014</t>
+          <t>09/05/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>17000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,40 +1336,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pesquera Catalina S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/06/2011</t>
+          <t>21/06/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Pesquera Catalina S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>230</v>
+        <v>3000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>03/06/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,36 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,40 +2536,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,36 +2580,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2643,7 +2647,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>23/09/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2653,7 +2657,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2668,30 +2672,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2726,30 +2726,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2764,10 +2764,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>Quinta</t>
@@ -2775,25 +2779,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2808,30 +2812,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2871,15 +2871,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2919,15 +2919,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2967,25 +2967,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3023,17 +3023,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3063,25 +3063,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3111,25 +3111,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3154,30 +3154,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3202,30 +3202,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3255,25 +3255,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3311,17 +3311,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3346,30 +3346,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Terminal Malvilla (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3399,25 +3399,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COSEDUCAM S.A.</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3455,17 +3455,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/02/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Terminal Malvilla (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3538,30 +3538,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>COSEDUCAM S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>15/02/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3576,30 +3576,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Mina El turco</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/03/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
+          <t>Proyecto Mina El turco</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3639,15 +3639,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Xpovin Exportaciones Limitada</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>29/03/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3682,20 +3682,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Xpovin Exportaciones Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Matetic (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3730,20 +3730,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Matetic Wine Group S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Bodega de Vinos Matetic (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3778,20 +3778,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3831,15 +3831,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3879,15 +3879,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3922,30 +3922,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Mayo Ltda.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/04/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
+          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3975,25 +3975,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cartagena</t>
+          <t>Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>18/04/2002</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>I. Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cartagena</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/03/2001</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4104,30 +4104,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Ilustre Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>07/03/2001</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4152,40 +4152,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>130</v>
+        <v>3500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19/02/1999</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4200,43 +4200,91 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>130</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>19/02/1999</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Construcción de Hotel con 22 Cabañas</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Hector Baeza Zavala</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="F82" t="n">
         <v>200</v>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>24/04/1998</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Cartagena</t>
         </is>

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>25/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
+          <t>ACTUALIZACIÓN INCREMENTO DE PRODUCCIÓN BODEGA? VIÑA MATETIC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Arturo Julio Larraín Bustamante</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/08/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157321957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
+          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Limitada</t>
+          <t>Arturo Julio Larraín Bustamante</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10950</v>
+        <v>80</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>25/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ceres Solar</t>
+          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CVE Treinta y Cinco SpA</t>
+          <t>Agrícola Ariztía Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>10950</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Riccione Solar</t>
+          <t>Ceres Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Riccione Solar SpA</t>
+          <t>CVE Treinta y Cinco SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/06/2020</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Planta Fotovoltaica Riccione Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cordova Ltda</t>
+          <t>Riccione Solar SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/03/2020</t>
+          <t>25/06/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>03/03/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
+          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Casablanca Transmisora de Energía S.A.</t>
+          <t>Sociedad de Transportes Cordova Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>50499</v>
+        <v>4500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05/02/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,40 +760,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización Modificacion Bodega de Vino Matetic</t>
+          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>vino y turismo ltda.</t>
+          <t>Casablanca Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>230</v>
+        <v>50499</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>05/02/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Regularización Modificacion Bodega de Vino Matetic</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>vino y turismo ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Mina El Turco, Sector Turco Norte</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>180</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
+          <t>Modificación Mina El Turco, Sector Turco Norte</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/12/2014</t>
+          <t>09/05/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>17000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,40 +1432,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pesquera Catalina S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/06/2011</t>
+          <t>21/06/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Pesquera Catalina S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>230</v>
+        <v>3000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>03/06/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,36 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,40 +2584,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,36 +2628,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2691,7 +2695,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>23/09/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2701,7 +2705,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2716,30 +2720,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2774,30 +2774,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2812,10 +2812,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>Quinta</t>
@@ -2823,25 +2827,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2856,30 +2860,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2919,15 +2919,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2967,15 +2967,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3015,25 +3015,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3111,25 +3111,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3159,25 +3159,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3202,30 +3202,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3250,30 +3250,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3303,25 +3303,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3394,30 +3394,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Terminal Malvilla (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3447,25 +3447,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>COSEDUCAM S.A.</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3503,17 +3503,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/02/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Terminal Malvilla (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3586,30 +3586,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>COSEDUCAM S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>15/02/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3624,30 +3624,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Mina El turco</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>29/03/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
+          <t>Proyecto Mina El turco</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3687,15 +3687,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Xpovin Exportaciones Limitada</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>29/03/2004</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3730,20 +3730,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Xpovin Exportaciones Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Matetic (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3778,20 +3778,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Matetic Wine Group S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Bodega de Vinos Matetic (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3826,20 +3826,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3879,15 +3879,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3927,15 +3927,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3970,30 +3970,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Mayo Ltda.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/04/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
+          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4023,25 +4023,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cartagena</t>
+          <t>Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>18/04/2002</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>I. Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cartagena</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/03/2001</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4152,30 +4152,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Ilustre Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>07/03/2001</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4200,40 +4200,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>130</v>
+        <v>3500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19/02/1999</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4248,43 +4248,91 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>130</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>19/02/1999</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>Construcción de Hotel con 22 Cabañas</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Hector Baeza Zavala</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="F83" t="n">
         <v>200</v>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>24/04/1998</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Cartagena</t>
         </is>

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>24/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN INCREMENTO DE PRODUCCIÓN BODEGA? VIÑA MATETIC</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Matetic Wine Group S.A</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2022</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157321957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
+          <t>ACTUALIZACIÓN INCREMENTO DE PRODUCCIÓN BODEGA? VIÑA MATETIC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arturo Julio Larraín Bustamante</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/08/2022</t>
+          <t>24/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157321957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
+          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Limitada</t>
+          <t>Arturo Julio Larraín Bustamante</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10950</v>
+        <v>80</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>25/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ceres Solar</t>
+          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CVE Treinta y Cinco SpA</t>
+          <t>Agrícola Ariztía Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>10950</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Riccione Solar</t>
+          <t>Ceres Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Riccione Solar SpA</t>
+          <t>CVE Treinta y Cinco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/06/2020</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Planta Fotovoltaica Riccione Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cordova Ltda</t>
+          <t>Riccione Solar SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/03/2020</t>
+          <t>25/06/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>03/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,40 +760,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
+          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Casablanca Transmisora de Energía S.A.</t>
+          <t>Sociedad de Transportes Cordova Ltda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50499</v>
+        <v>4500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/02/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,40 +808,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización Modificacion Bodega de Vino Matetic</t>
+          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>vino y turismo ltda.</t>
+          <t>Casablanca Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>230</v>
+        <v>50499</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>05/02/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Regularización Modificacion Bodega de Vino Matetic</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>vino y turismo ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Mina El Turco, Sector Turco Norte</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>180</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
+          <t>Modificación Mina El Turco, Sector Turco Norte</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/12/2014</t>
+          <t>09/05/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1200</v>
+        <v>17000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,40 +1432,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pesquera Catalina S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03/06/2011</t>
+          <t>21/06/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Pesquera Catalina S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>230</v>
+        <v>3000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>03/06/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,36 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,40 +2632,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,36 +2676,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2739,7 +2743,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>23/09/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2749,7 +2753,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2764,30 +2768,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2822,30 +2822,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2860,10 +2860,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>Quinta</t>
@@ -2871,25 +2875,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2904,30 +2908,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2967,15 +2967,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3015,15 +3015,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3063,25 +3063,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3119,17 +3119,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3159,25 +3159,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3207,25 +3207,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3250,30 +3250,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3298,30 +3298,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3351,25 +3351,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3442,30 +3442,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Terminal Malvilla (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3495,25 +3495,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>COSEDUCAM S.A.</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3551,17 +3551,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/02/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Terminal Malvilla (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3634,30 +3634,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>COSEDUCAM S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>15/02/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Mina El turco</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/03/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3720,12 +3720,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
+          <t>Proyecto Mina El turco</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3735,15 +3735,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Xpovin Exportaciones Limitada</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>29/03/2004</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3778,20 +3778,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Xpovin Exportaciones Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Matetic (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3826,20 +3826,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Matetic Wine Group S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Bodega de Vinos Matetic (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3874,20 +3874,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3927,15 +3927,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3975,15 +3975,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4018,30 +4018,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Mayo Ltda.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/04/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
+          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4071,25 +4071,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cartagena</t>
+          <t>Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>18/04/2002</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>I. Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cartagena</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/03/2001</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Ilustre Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>07/03/2001</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4248,40 +4248,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>130</v>
+        <v>3500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19/02/1999</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4296,43 +4296,91 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>130</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>19/02/1999</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>Construcción de Hotel con 22 Cabañas</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Hector Baeza Zavala</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="F84" t="n">
         <v>200</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>24/04/1998</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Cartagena</t>
         </is>

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Canchas de Almacenaje de Nitrato de Amonio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>Inmobiliaria el Miltil SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>400</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160714119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,30 +472,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN INCREMENTO DE PRODUCCIÓN BODEGA? VIÑA MATETIC</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Matetic Wine Group S.A</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/10/2022</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157321957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
+          <t>ACTUALIZACIÓN INCREMENTO DE PRODUCCIÓN BODEGA? VIÑA MATETIC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arturo Julio Larraín Bustamante</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/08/2022</t>
+          <t>24/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157321957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
+          <t>Actualizacion incremento de produccion bodega - Viña Matetic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Limitada</t>
+          <t>Arturo Julio Larraín Bustamante</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10950</v>
+        <v>80</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>25/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156704611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ceres Solar</t>
+          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CVE Treinta y Cinco SpA</t>
+          <t>Agrícola Ariztía Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>10950</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Riccione Solar</t>
+          <t>Ceres Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Riccione Solar SpA</t>
+          <t>CVE Treinta y Cinco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/06/2020</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149748363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Planta Fotovoltaica Riccione Solar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cordova Ltda</t>
+          <t>Riccione Solar SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/03/2020</t>
+          <t>25/06/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146939684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
+          <t>Transporte de Cal Viva en Silos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>03/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145781908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,40 +808,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
+          <t>Transporte Terrestre de Cal Viva en Semirremolques Silos Herméticos, Regiones Segunda, Tercera, Cuarta, Quinta y Metropolitana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Casablanca Transmisora de Energía S.A.</t>
+          <t>Sociedad de Transportes Cordova Ltda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>50499</v>
+        <v>4500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05/02/2020</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145573203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,40 +856,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización Modificacion Bodega de Vino Matetic</t>
+          <t>Nueva Línea 2x220 Nueva Alto Melipilla - Nueva Casablanca - La Pólvora - Agua Santa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>vino y turismo ltda.</t>
+          <t>Casablanca Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>230</v>
+        <v>50499</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>05/02/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145591077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Regularización Modificacion Bodega de Vino Matetic</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>vino y turismo ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132652255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Mina El Turco, Sector Turco Norte</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>180</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
+          <t>Modificación Mina El Turco, Sector Turco Norte</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12/12/2014</t>
+          <t>09/05/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131379840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>MODIFICACIÓN PROYECTO MINA EL TURCO, SECTORES SOFÍA 2 Y TURCO SUR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130044795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1200</v>
+        <v>17000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,40 +1528,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>CENTRO DE MANEJO AMBIENTAL CARTAGENA SUSTENTABLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>INVERSIONES Y SERVICIOS INSER S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6304657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pesquera Catalina S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03/06/2011</t>
+          <t>21/06/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5737934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Planta Procesadora de Harina y Aceite de Pescado</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Pesquera Catalina S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>230</v>
+        <v>3000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>03/06/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,36 +2632,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,40 +2680,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3236869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,36 +2724,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos San Antonio</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Empresa Consorcio Santa Marta S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6800</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2787,7 +2791,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>23/09/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2797,7 +2801,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3206608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2812,30 +2816,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos San Antonio</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Empresa Consorcio Santa Marta S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>6800</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2870,30 +2870,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2908,10 +2908,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Planta de Tratamiento de Arenas Siliceas El Turco (e-seia)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>Quinta</t>
@@ -2919,25 +2923,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2776043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2952,30 +2956,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3015,15 +3015,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3063,15 +3063,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3111,25 +3111,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3167,17 +3167,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3207,25 +3207,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3255,25 +3255,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3298,30 +3298,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3346,30 +3346,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3399,25 +3399,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3455,17 +3455,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3490,30 +3490,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Terminal Malvilla (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3543,25 +3543,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>COSEDUCAM S.A.</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3599,17 +3599,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/02/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=627141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Terminal Malvilla (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3682,30 +3682,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>COSEDUCAM S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>15/02/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=597700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3720,30 +3720,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Mina El turco</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Minera Las Piedras Limitada</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/03/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3768,12 +3768,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
+          <t>Proyecto Mina El turco</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3783,15 +3783,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Xpovin Exportaciones Limitada</t>
+          <t>Minera Las Piedras Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>29/03/2004</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Bodega de Vinos Lo Abarca (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3826,20 +3826,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Xpovin Exportaciones Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=176135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bodega de Vinos Matetic (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3874,20 +3874,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Matetic Wine Group S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Bodega de Vinos Matetic (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3922,20 +3922,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Matetic Wine Group S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3975,15 +3975,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4023,15 +4023,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4066,30 +4066,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Mayo Ltda.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/04/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
+          <t>Estación de Servicios Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4119,25 +4119,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cartagena</t>
+          <t>Sociedad de Inversiones Mayo Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/09/2001</t>
+          <t>18/04/2002</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Modificación Plan Regulador Comunal Sector Ex Fundo Lo Huidobro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>I. Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>20/09/2001</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cartagena</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/03/2001</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4248,30 +4248,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación Plan Regulador Comunal Sector Antigua Estación</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Ilustre Municipalidad de Cartagena</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>07/03/2001</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4296,40 +4296,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>130</v>
+        <v>3500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/02/1999</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4344,43 +4344,91 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Instalaciones para Depósito de Mercaderías en Tránsito</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sociedad Alejando Donoso K. y Otro Ltda.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>130</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>19/02/1999</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1704&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Construcción de Hotel con 22 Cabañas</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Hector Baeza Zavala</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F85" t="n">
         <v>200</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>24/04/1998</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=981&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Cartagena</t>
         </is>

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Cierre y Transformación Planta San Sebastián</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>MIGRIN S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cierre y Transformación Planta San Sebastián</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIGRIN S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/Cartagena.xlsx
+++ b/data/Cartagena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
